--- a/도서정보/샘플-도서목록(2021-04-29).xlsx
+++ b/도서정보/샘플-도서목록(2021-04-29).xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\도서정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="6540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
-    <sheet name="도서-저자" sheetId="3" r:id="rId2"/>
+    <sheet name="도서목록 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="도서-저자" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
   <si>
     <t>도서명</t>
   </si>
@@ -28,6 +29,9 @@
     <t>저자</t>
   </si>
   <si>
+    <t>역자</t>
+  </si>
+  <si>
     <t>발행일</t>
   </si>
   <si>
@@ -154,6 +158,9 @@
     <t>아이의 뇌에 상처 입히는 부모들</t>
   </si>
   <si>
+    <t>도모다 아케미</t>
+  </si>
+  <si>
     <t>이은미</t>
   </si>
   <si>
@@ -163,6 +170,9 @@
     <t>리처드 쇼튼</t>
   </si>
   <si>
+    <t>이진원</t>
+  </si>
+  <si>
     <t>서른과 마흔 사이 나를 되돌아볼 시간</t>
   </si>
   <si>
@@ -199,6 +209,9 @@
     <t>세계미래보고서 2019</t>
   </si>
   <si>
+    <t>이희령</t>
+  </si>
+  <si>
     <t>진정한 나로 살아갈 용기</t>
   </si>
   <si>
@@ -217,10 +230,16 @@
     <t>나를 사랑하는 일에 서툰 당신에게</t>
   </si>
   <si>
+    <t>안정현(마음달)</t>
+  </si>
+  <si>
     <t>이강연</t>
   </si>
   <si>
     <t>하워드 막스 투자와 마켓 사이클의 법칙</t>
+  </si>
+  <si>
+    <t>하워드 막스(Howard Marks)</t>
   </si>
   <si>
     <t>이주영</t>
@@ -320,7 +339,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>로렌스 번스 -  크리스토퍼 슐건</t>
+  </si>
+  <si>
+    <t>이요셉 -  김채송화</t>
+  </si>
+  <si>
+    <t>제러미 하이먼즈 -  헨리 팀스</t>
+  </si>
+  <si>
     <t>선생님 -  저 우울증인가요?</t>
+  </si>
+  <si>
+    <t>박영숙 -  제롬 글렌</t>
   </si>
   <si>
     <t>ISBN</t>
@@ -331,32 +362,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>대한민국 주식투자자 읽기</t>
+    <t>완벽한 재무제표 읽기</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>하워드 막스(Howard Marks)</t>
+    <t>저자 1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>이희령</t>
+    <t>저자 2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>이진원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>도모다 아케미</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>역자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>크리스토퍼 슐건</t>
   </si>
   <si>
     <t>크리스토퍼 슐건</t>
@@ -364,7 +382,13 @@
   </si>
   <si>
     <t>로렌스 번스</t>
+  </si>
+  <si>
+    <t>로렌스 번스</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>김채송화</t>
   </si>
   <si>
     <t>김채송화</t>
@@ -372,74 +396,56 @@
   </si>
   <si>
     <t>이요셉</t>
+  </si>
+  <si>
+    <t>이요셉</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  헨리 팀스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제러미 하이먼즈 </t>
+    <t>헨리 팀스</t>
+  </si>
+  <si>
+    <t>헨리 팀스</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 제롬 글렌</t>
+    <t>제러미 하이먼즈</t>
+  </si>
+  <si>
+    <t>제러미 하이먼즈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제롬 글렌</t>
+  </si>
+  <si>
+    <t>제롬 글렌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영숙</t>
   </si>
   <si>
     <t>박영숙</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>안정현(마음달)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이요셉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제러미 하이먼즈 </t>
-  </si>
-  <si>
-    <t>도모다 아케미</t>
-  </si>
-  <si>
-    <t>박영숙</t>
-  </si>
-  <si>
-    <t>로렌스 번스</t>
-  </si>
-  <si>
-    <t>크리스토퍼 슐건</t>
-  </si>
-  <si>
-    <t>김채송화</t>
-  </si>
-  <si>
-    <t>안정현'마음달)</t>
-  </si>
-  <si>
-    <t>하워드 막스'Howard Marks)</t>
-  </si>
-  <si>
-    <t>9791188850426</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>일련번호</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>도서저자</t>
+    <t>저자</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,22 +1107,7 @@
     <xf numFmtId="176" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1188,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="\\googleads.g.doubleclick.net\pagead\viewthroughconversion\921362370\?value=0&amp;guid=ON&amp;script=0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,6 +1212,72 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="51015900"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 3" descr="\\googleads.g.doubleclick.net\pagead\viewthroughconversion\921362370\?value=0&amp;guid=ON&amp;script=0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1143000" y="8858250"/>
           <a:ext cx="9525" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1506,13 +1563,822 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43570</v>
+      </c>
+      <c r="G2" s="11">
+        <v>272</v>
+      </c>
+      <c r="H2" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43566</v>
+      </c>
+      <c r="G3" s="11">
+        <v>132</v>
+      </c>
+      <c r="H3" s="12">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10">
+        <v>43565</v>
+      </c>
+      <c r="G4" s="11">
+        <v>388</v>
+      </c>
+      <c r="H4" s="12">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10">
+        <v>43565</v>
+      </c>
+      <c r="G5" s="11">
+        <v>440</v>
+      </c>
+      <c r="H5" s="12">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
+        <v>43565</v>
+      </c>
+      <c r="G6" s="11">
+        <v>280</v>
+      </c>
+      <c r="H6" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10">
+        <v>43565</v>
+      </c>
+      <c r="G7" s="11">
+        <v>368</v>
+      </c>
+      <c r="H7" s="12">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43555</v>
+      </c>
+      <c r="G8" s="11">
+        <v>536</v>
+      </c>
+      <c r="H8" s="12">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10">
+        <v>43554</v>
+      </c>
+      <c r="G9" s="11">
+        <v>232</v>
+      </c>
+      <c r="H9" s="12">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10">
+        <v>43549</v>
+      </c>
+      <c r="G10" s="11">
+        <v>264</v>
+      </c>
+      <c r="H10" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10">
+        <v>43544</v>
+      </c>
+      <c r="G11" s="11">
+        <v>500</v>
+      </c>
+      <c r="H11" s="12">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10">
+        <v>43539</v>
+      </c>
+      <c r="G12" s="11">
+        <v>248</v>
+      </c>
+      <c r="H12" s="12">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43523</v>
+      </c>
+      <c r="G13" s="11">
+        <v>376</v>
+      </c>
+      <c r="H13" s="12">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43522</v>
+      </c>
+      <c r="G14" s="11">
+        <v>360</v>
+      </c>
+      <c r="H14" s="12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43516</v>
+      </c>
+      <c r="G15" s="11">
+        <v>416</v>
+      </c>
+      <c r="H15" s="12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10">
+        <v>43511</v>
+      </c>
+      <c r="G16" s="11">
+        <v>252</v>
+      </c>
+      <c r="H16" s="12">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43495</v>
+      </c>
+      <c r="G17" s="11">
+        <v>456</v>
+      </c>
+      <c r="H17" s="12">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10">
+        <v>43494</v>
+      </c>
+      <c r="G18" s="11">
+        <v>252</v>
+      </c>
+      <c r="H18" s="12">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="10">
+        <v>43493</v>
+      </c>
+      <c r="G19" s="11">
+        <v>240</v>
+      </c>
+      <c r="H19" s="12">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="10">
+        <v>43483</v>
+      </c>
+      <c r="G20" s="11">
+        <v>280</v>
+      </c>
+      <c r="H20" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43475</v>
+      </c>
+      <c r="G21" s="11">
+        <v>316</v>
+      </c>
+      <c r="H21" s="12">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10">
+        <v>43459</v>
+      </c>
+      <c r="G22" s="11">
+        <v>256</v>
+      </c>
+      <c r="H22" s="12">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G23" s="11">
+        <v>272</v>
+      </c>
+      <c r="H23" s="12">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10">
+        <v>43449</v>
+      </c>
+      <c r="G24" s="11">
+        <v>232</v>
+      </c>
+      <c r="H24" s="12">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="10">
+        <v>43433</v>
+      </c>
+      <c r="G25" s="11">
+        <v>236</v>
+      </c>
+      <c r="H25" s="12">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="10">
+        <v>43428</v>
+      </c>
+      <c r="G26" s="11">
+        <v>376</v>
+      </c>
+      <c r="H26" s="12">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="10">
+        <v>43427</v>
+      </c>
+      <c r="G27" s="11">
+        <v>228</v>
+      </c>
+      <c r="H27" s="12">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10">
+        <v>43419</v>
+      </c>
+      <c r="G28" s="11">
+        <v>232</v>
+      </c>
+      <c r="H28" s="12">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10">
+        <v>43404</v>
+      </c>
+      <c r="G29" s="11">
+        <v>240</v>
+      </c>
+      <c r="H29" s="12">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10">
+        <v>43403</v>
+      </c>
+      <c r="G30" s="11">
+        <v>464</v>
+      </c>
+      <c r="H30" s="12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="10">
+        <v>43402</v>
+      </c>
+      <c r="G31" s="11">
+        <v>436</v>
+      </c>
+      <c r="H31" s="12">
+        <v>18000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" topLeftCell="C10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
@@ -1524,97 +2390,97 @@
     <col min="9" max="9" width="7" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1">
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15">
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10">
         <v>43511</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="11">
         <v>252</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="12">
         <v>14000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15">
+    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10">
         <v>43419</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="11">
         <v>232</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <v>14800</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1">
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1628,18 +2494,18 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1653,76 +2519,76 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10">
         <v>43459</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>256</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="12">
         <v>13500</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="15">
+      <c r="D7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="10">
         <v>43493</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="11">
         <v>240</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="12">
         <v>13800</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1">
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="10">
         <v>43555</v>
@@ -1734,49 +2600,49 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="10">
         <v>43483</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="11">
         <v>280</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="12">
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="10">
         <v>43566</v>
@@ -1788,128 +2654,128 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="10">
         <v>43475</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="11">
         <v>316</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="12">
         <v>15800</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="10">
+        <v>43523</v>
+      </c>
+      <c r="H12" s="11">
+        <v>376</v>
+      </c>
+      <c r="I12" s="12">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="10">
+        <v>43428</v>
+      </c>
+      <c r="H13" s="11">
+        <v>376</v>
+      </c>
+      <c r="I13" s="12">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="10">
+        <v>43427</v>
+      </c>
+      <c r="H14" s="11">
+        <v>228</v>
+      </c>
+      <c r="I14" s="12">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="15">
-        <v>43523</v>
-      </c>
-      <c r="H12" s="16">
-        <v>376</v>
-      </c>
-      <c r="I12" s="17">
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="15">
-        <v>43428</v>
-      </c>
-      <c r="H13" s="16">
-        <v>376</v>
-      </c>
-      <c r="I13" s="17">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="15">
-        <v>43427</v>
-      </c>
-      <c r="H14" s="16">
-        <v>228</v>
-      </c>
-      <c r="I14" s="17">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="B15" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1923,22 +2789,22 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="10">
         <v>43570</v>
@@ -1950,124 +2816,124 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10">
+        <v>43404</v>
+      </c>
+      <c r="H17" s="11">
+        <v>240</v>
+      </c>
+      <c r="I17" s="12">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10">
+        <v>43516</v>
+      </c>
+      <c r="H18" s="11">
+        <v>416</v>
+      </c>
+      <c r="I18" s="12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="10">
+        <v>43449</v>
+      </c>
+      <c r="H19" s="11">
+        <v>232</v>
+      </c>
+      <c r="I19" s="12">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15">
-        <v>43404</v>
-      </c>
-      <c r="H17" s="16">
-        <v>240</v>
-      </c>
-      <c r="I17" s="17">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="15">
-        <v>43516</v>
-      </c>
-      <c r="H18" s="16">
-        <v>416</v>
-      </c>
-      <c r="I18" s="17">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="15">
-        <v>43449</v>
-      </c>
-      <c r="H19" s="16">
-        <v>232</v>
-      </c>
-      <c r="I19" s="17">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10">
         <v>43454</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="11">
         <v>272</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="12">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2081,46 +2947,46 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="14" t="s">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10">
         <v>43403</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="11">
         <v>464</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="12">
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10">
@@ -2133,43 +2999,43 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="14" t="s">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15">
+      <c r="D24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10">
         <v>43494</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="11">
         <v>252</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="12">
         <v>13500</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2183,18 +3049,18 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2208,132 +3074,132 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="10">
         <v>43495</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="11">
         <v>456</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="12">
         <v>18000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="14" t="s">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
+      <c r="D28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="15">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="10">
         <v>43522</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="11">
         <v>360</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="12">
         <v>16000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="15">
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="10">
         <v>43433</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="11">
         <v>236</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="12">
         <v>14000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="14" t="s">
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="B30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="10">
         <v>43402</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="11">
         <v>436</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="12">
         <v>18000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1">
+    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" s="10">
         <v>43554</v>
@@ -2354,406 +3220,406 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>94</v>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>127</v>
+      <c r="B3" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>76</v>
+      <c r="B4" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>78</v>
+      <c r="B5" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>71</v>
+      <c r="B6" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>86</v>
+      <c r="B7" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>69</v>
+      <c r="B8" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>95</v>
+      <c r="B9" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>81</v>
+      <c r="B10" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>88</v>
+      <c r="B11" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>89</v>
+      <c r="B12" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>83</v>
+      <c r="B13" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>74</v>
+      <c r="B14" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>84</v>
+      <c r="B15" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>80</v>
+      <c r="B16" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>87</v>
+      <c r="B17" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>93</v>
+      <c r="B18" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>73</v>
+      <c r="B19" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>68</v>
+      <c r="B20" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>91</v>
+      <c r="B21" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>82</v>
+      <c r="B22" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>85</v>
+      <c r="B23" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>97</v>
+      <c r="B25" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>96</v>
+      <c r="B26" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>70</v>
+      <c r="B27" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>92</v>
+      <c r="B28" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>90</v>
+      <c r="B29" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>77</v>
+      <c r="B30" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>75</v>
+      <c r="B31" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>74</v>
+      <c r="B32" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>92</v>
+      <c r="B33" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>83</v>
+      <c r="B34" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>76</v>
+      <c r="B35" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
